--- a/application/plugins/Reports_manager_sells/views/Reports_manager_sells.xlsx
+++ b/application/plugins/Reports_manager_sells/views/Reports_manager_sells.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Дата</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Бонус %</t>
+  </si>
+  <si>
+    <t>Корр. Пробег</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -635,10 +638,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,137 +767,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,7 +855,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,7 +890,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,43 +1102,43 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="O7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="20" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="20" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-    </row>
-    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="63"/>
+    </row>
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1147,267 +1159,276 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="M3" s="21" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="M3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="H4" s="29" t="s">
+      <c r="E4" s="66"/>
+      <c r="H4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="27">
+      <c r="I4" s="42"/>
+      <c r="J4" s="43">
         <f>SUM(F22:T22)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="M4" s="31" t="s">
+      <c r="K4" s="44"/>
+      <c r="M4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="H5" s="29" t="s">
+      <c r="E5" s="66"/>
+      <c r="H5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="27">
+      <c r="I5" s="42"/>
+      <c r="J5" s="43">
         <f>SUM(F20:T20)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="M5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="31">
-        <v>10</v>
-      </c>
-      <c r="P5" s="32"/>
+      <c r="K5" s="44"/>
+      <c r="M5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="33">
+        <f>1.1*O4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="34"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="H6" s="29" t="s">
+      <c r="E6" s="66"/>
+      <c r="H6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="27">
+      <c r="I6" s="42"/>
+      <c r="J6" s="43">
         <v>10000</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="M6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="31">
-        <v>44</v>
-      </c>
-      <c r="P6" s="32"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67">
+        <v>10</v>
+      </c>
+      <c r="P6" s="67"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="H7" s="29" t="s">
+      <c r="E7" s="66"/>
+      <c r="H7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="27">
-        <f>O6*O4/100*O5</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="28"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43">
+        <f>O7*O5/100*O6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="M7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="33">
+        <v>44</v>
+      </c>
+      <c r="P7" s="34"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="H8" s="33" t="s">
+      <c r="E8" s="66"/>
+      <c r="H8" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35">
+      <c r="I8" s="53"/>
+      <c r="J8" s="54">
         <f>J5+J6+J7</f>
         <v>10000</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="55"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="E9" s="66"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="E10" s="66"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="E13" s="60"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="56" t="s">
+      <c r="E16" s="60"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="59"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="48"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1454,196 +1475,196 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="51" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="47">
+      <c r="E20" s="29"/>
+      <c r="F20" s="20">
         <f>F22*F21</f>
         <v>0</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="20">
         <f t="shared" ref="G20:T20" si="0">G22*G21</f>
         <v>0</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="47">
+      <c r="Q20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="47">
+      <c r="S20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T20" s="60">
+      <c r="T20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="53" t="s">
+    <row r="21" spans="2:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="50">
+      <c r="E21" s="27"/>
+      <c r="F21" s="23">
         <v>0.01</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="23">
         <v>0.01</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="23">
         <v>0.01</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="23">
         <v>0.01</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="23">
         <v>0.01</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="23">
         <v>0.01</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="23">
         <v>0.01</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="23">
         <v>0.01</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="23">
         <v>0.01</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="23">
         <v>0.01</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="23">
         <v>0.01</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="23">
         <v>0.01</v>
       </c>
-      <c r="R21" s="50">
+      <c r="R21" s="23">
         <v>0.01</v>
       </c>
-      <c r="S21" s="50">
+      <c r="S21" s="23">
         <v>0.01</v>
       </c>
-      <c r="T21" s="61">
+      <c r="T21" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="51" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="47">
+      <c r="E22" s="29"/>
+      <c r="F22" s="20">
         <f>SUM(F23:F1013)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="20">
         <f t="shared" ref="G22:T22" si="1">SUM(G23:G1013)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="47">
+      <c r="L22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="47">
+      <c r="O22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="47">
+      <c r="S22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="60">
+      <c r="T22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1724,28 +1745,19 @@
       <c r="T24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="49">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
@@ -1755,24 +1767,34 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/plugins/Reports_manager_sells/views/Reports_manager_sells.xlsx
+++ b/application/plugins/Reports_manager_sells/views/Reports_manager_sells.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2472" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -668,6 +668,90 @@
     <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -689,10 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,87 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,12 +1102,12 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
@@ -1116,27 +1116,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
@@ -1160,275 +1160,274 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="30" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="H4" s="41" t="s">
+      <c r="E4" s="30"/>
+      <c r="G4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43">
+      <c r="H4" s="53"/>
+      <c r="I4" s="50">
         <f>SUM(F22:T22)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="M4" s="33" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="H5" s="41" t="s">
+      <c r="E5" s="30"/>
+      <c r="G5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43">
+      <c r="H5" s="53"/>
+      <c r="I5" s="50">
         <f>SUM(F20:T20)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="M5" s="33" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="33">
-        <f>1.1*O4</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="34"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="31">
+        <f>1.1*M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="H6" s="41" t="s">
+      <c r="E6" s="30"/>
+      <c r="G6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43">
+      <c r="H6" s="53"/>
+      <c r="I6" s="50">
         <v>10000</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="M6" s="67" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67">
+      <c r="L6" s="61"/>
+      <c r="M6" s="61">
         <v>10</v>
       </c>
-      <c r="P6" s="67"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="H7" s="41" t="s">
+      <c r="E7" s="30"/>
+      <c r="G7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43">
-        <f>O7*O5/100*O6</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="M7" s="16" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="50">
+        <f>M7*M5/100*M6</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="33">
+      <c r="L7" s="17"/>
+      <c r="M7" s="31">
         <v>44</v>
       </c>
-      <c r="P7" s="34"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="H8" s="52" t="s">
+      <c r="E8" s="30"/>
+      <c r="G8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54">
-        <f>J5+J6+J7</f>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42">
+        <f>I5+I6+I7</f>
         <v>10000</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="J8" s="43"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="66"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="51"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="39"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1478,10 +1477,10 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="20">
         <f>F22*F21</f>
         <v>0</v>
@@ -1546,10 +1545,10 @@
     <row r="21" spans="2:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="23">
         <v>0.01</v>
       </c>
@@ -1599,10 +1598,10 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="20">
         <f>SUM(F23:F1013)</f>
         <v>0</v>
@@ -1746,24 +1745,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:T18"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
@@ -1774,27 +1778,22 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
